--- a/templates/dataplant/GEO/GEO_-_Computational_analysis.xlsx
+++ b/templates/dataplant/GEO/GEO_-_Computational_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C7F16-80EA-456C-B333-094E97437794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B6A22-3CD6-4438-8E6F-FB45603EA6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>Source Name</t>
   </si>
@@ -263,12 +263,6 @@
   </si>
   <si>
     <t>Transcriptomics</t>
-  </si>
-  <si>
-    <t>mRNASeq</t>
-  </si>
-  <si>
-    <t>RNASeq</t>
   </si>
   <si>
     <t>Computational Analysis</t>
@@ -505,9 +499,6 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
   </si>
   <si>
-    <t>NCIT</t>
-  </si>
-  <si>
     <t>data processing</t>
   </si>
   <si>
@@ -518,6 +509,12 @@
   </si>
   <si>
     <t>mandatory</t>
+  </si>
+  <si>
+    <t>RNA-Seq</t>
+  </si>
+  <si>
+    <t>EFO:0008896</t>
   </si>
 </sst>
 </file>
@@ -1175,13 +1172,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>99</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1223,10 +1220,10 @@
         <v>13</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T1" t="s">
         <v>14</v>
@@ -1247,144 +1244,144 @@
         <v>19</v>
       </c>
       <c r="Z1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s">
         <v>70</v>
       </c>
-      <c r="R2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" t="s">
-        <v>72</v>
-      </c>
       <c r="X2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z3" s="12"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
         <v>78</v>
       </c>
-      <c r="O4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" t="s">
-        <v>80</v>
-      </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z5" s="12"/>
     </row>
@@ -1398,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34C41AE-DF76-4303-A53C-3D579ECAFFB9}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,61 +1407,61 @@
     <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1472,87 +1469,83 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1560,7 +1553,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1574,7 +1567,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1600,36 +1593,36 @@
         <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B27" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" xr:uid="{294A5415-2388-4C25-98AB-34ABEA2B6780}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{294A5415-2388-4C25-98AB-34ABEA2B6780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -1662,40 +1655,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1703,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -1726,34 +1719,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1761,34 +1754,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="L4" s="10"/>
     </row>
@@ -1797,34 +1790,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="L5" s="10"/>
     </row>
@@ -1833,34 +1826,34 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="L6" s="10"/>
     </row>
@@ -1869,34 +1862,34 @@
         <v>10</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="L7" s="10"/>
     </row>
@@ -1905,34 +1898,34 @@
         <v>13</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="L8" s="10"/>
     </row>
@@ -1941,34 +1934,34 @@
         <v>14</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="L9" s="10"/>
     </row>
@@ -1977,53 +1970,53 @@
         <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>

--- a/templates/dataplant/GEO/GEO_-_Computational_analysis.xlsx
+++ b/templates/dataplant/GEO/GEO_-_Computational_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B6A22-3CD6-4438-8E6F-FB45603EA6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7F5ED8-0175-4E6C-8285-A70109DC175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Computation" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="121">
   <si>
     <t>Source Name</t>
   </si>
@@ -136,58 +136,22 @@
     <t>Parameter [Data filtering software]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000023)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000023)</t>
-  </si>
-  <si>
     <t>Parameter [Data filtering software version]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000024)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000024)</t>
-  </si>
-  <si>
     <t>Parameter [Data filtering Software Parameters]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000025)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000025)</t>
-  </si>
-  <si>
     <t>Parameter [Read Alignment Software]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000002)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000002)</t>
-  </si>
-  <si>
     <t>Parameter [Read Alignment Software Version]</t>
   </si>
   <si>
     <t>Parameter [Read Alignment Software Parameters]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000004)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000004)</t>
-  </si>
-  <si>
     <t>Parameter [Processed data file format]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000027)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000027)</t>
   </si>
   <si>
     <t>Id</t>
@@ -328,51 +292,6 @@
     <t>The type of processed file. Examples include, peak, wig, bed, gff, bigWig, etc...</t>
   </si>
   <si>
-    <t>Trimmomatic</t>
-  </si>
-  <si>
-    <t>Kallisto</t>
-  </si>
-  <si>
-    <t>HiSat2</t>
-  </si>
-  <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>0.45.1</t>
-  </si>
-  <si>
-    <t>kallisto quant -b 50 -t 10</t>
-  </si>
-  <si>
-    <t>.xlsx</t>
-  </si>
-  <si>
-    <t>.txt</t>
-  </si>
-  <si>
-    <t>.csv</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000003)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000003)</t>
-  </si>
-  <si>
-    <t>user-specific</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>ENVO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_01000801</t>
-  </si>
-  <si>
     <t>DataPLANT</t>
   </si>
   <si>
@@ -515,6 +434,69 @@
   </si>
   <si>
     <t>EFO:0008896</t>
+  </si>
+  <si>
+    <t>Parameter [data filtering software]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000023)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000023)</t>
+  </si>
+  <si>
+    <t>Parameter [data filtering software version]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000024)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000024)</t>
+  </si>
+  <si>
+    <t>Parameter [data filtering software parameters]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000025)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000025)</t>
+  </si>
+  <si>
+    <t>Parameter [read alignment software]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000002)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000002)</t>
+  </si>
+  <si>
+    <t>Parameter [read alignment software version]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000003)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000003)</t>
+  </si>
+  <si>
+    <t>Parameter [read alignment software parameters]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000004)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000004)</t>
+  </si>
+  <si>
+    <t>Parameter [processed data file format]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000027)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000027)</t>
   </si>
 </sst>
 </file>
@@ -741,7 +723,67 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{4500580F-8250-44DE-8BB2-4BA9BB0A7E04}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -773,29 +815,29 @@
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{93380294-CB8D-42FC-AF8E-9805327345E7}" name="Source Name"/>
     <tableColumn id="21" xr3:uid="{1ADB5EC9-036B-4831-8ABF-E7514AE6DA6E}" name="Protocol Type"/>
-    <tableColumn id="22" xr3:uid="{3CA29302-6C40-4D6E-BE92-3A6011B91D35}" name="Term Source REF (DPBO:1000161)" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{754A37E6-818B-467C-98BA-A6D3A5FDDFEC}" name="Term Accession Number (DPBO:1000161)" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{80D6BC30-7F04-4051-BF2F-665DB88B06AE}" name="Parameter [Data filtering software]"/>
-    <tableColumn id="4" xr3:uid="{D70950FE-1B6C-4B95-872D-2B43BEFF937B}" name="Term Source REF (NFDI4PSO:0000023)"/>
-    <tableColumn id="5" xr3:uid="{B36D0CC1-213D-4915-92CE-07D32D120A1E}" name="Term Accession Number (NFDI4PSO:0000023)"/>
-    <tableColumn id="6" xr3:uid="{B8535FD9-B990-417B-9BE4-863B8C1DD056}" name="Parameter [Data filtering software version]"/>
-    <tableColumn id="7" xr3:uid="{F3D9F84E-6988-4324-865B-B8B45498F88C}" name="Term Source REF (NFDI4PSO:0000024)"/>
-    <tableColumn id="8" xr3:uid="{F7BBF942-5618-4166-8C4B-7B4C3AED626C}" name="Term Accession Number (NFDI4PSO:0000024)"/>
-    <tableColumn id="9" xr3:uid="{0287F8CE-6AD4-4F24-B300-F7B3429D97C0}" name="Parameter [Data filtering Software Parameters]"/>
-    <tableColumn id="10" xr3:uid="{04B1E6E1-CABB-48B2-A81C-042E65BDE957}" name="Term Source REF (NFDI4PSO:0000025)"/>
-    <tableColumn id="11" xr3:uid="{B72149CB-1CDB-46BD-86A6-B82C86B36FD1}" name="Term Accession Number (NFDI4PSO:0000025)"/>
-    <tableColumn id="12" xr3:uid="{5C7BE764-57E0-4589-9182-D25EF6A1AB65}" name="Parameter [Read Alignment Software]"/>
-    <tableColumn id="13" xr3:uid="{C06CE5B8-351F-4CC2-AEDB-CAA06DAD68B6}" name="Term Source REF (NFDI4PSO:0000002)"/>
-    <tableColumn id="14" xr3:uid="{5B717FBF-AB22-4178-9622-551149AEDBA2}" name="Term Accession Number (NFDI4PSO:0000002)"/>
-    <tableColumn id="15" xr3:uid="{CC9E8F0E-F0C9-4C42-ABEE-8FABEE5CBCD5}" name="Parameter [Read Alignment Software Version]"/>
-    <tableColumn id="16" xr3:uid="{890B3357-096C-4D52-91F6-A6CDBEECF667}" name="Term Source REF (NFDI4PSO:0000003)"/>
-    <tableColumn id="17" xr3:uid="{95E4BB7E-6478-4A1E-A824-1B4419C317BC}" name="Term Accession Number (NFDI4PSO:0000003)"/>
-    <tableColumn id="18" xr3:uid="{B9705BE2-174E-4479-AB52-6D4198B45A1B}" name="Parameter [Read Alignment Software Parameters]"/>
-    <tableColumn id="19" xr3:uid="{9AB9BF6B-E892-417F-ADF0-011CB0B3775F}" name="Term Source REF (NFDI4PSO:0000004)"/>
-    <tableColumn id="20" xr3:uid="{52486034-F12F-4102-A0B2-90A45F35CBA8}" name="Term Accession Number (NFDI4PSO:0000004)"/>
-    <tableColumn id="24" xr3:uid="{D9EF39FD-6C34-45E7-BB66-0E47D62F2287}" name="Parameter [Processed data file format]"/>
-    <tableColumn id="25" xr3:uid="{4F08F69F-150F-4C24-8CF1-DB5CA334C705}" name="Term Source REF (NFDI4PSO:0000027)"/>
-    <tableColumn id="26" xr3:uid="{937F41BB-46A8-40D7-BA19-6EAA289C307B}" name="Term Accession Number (NFDI4PSO:0000027)"/>
+    <tableColumn id="22" xr3:uid="{3CA29302-6C40-4D6E-BE92-3A6011B91D35}" name="Term Source REF (DPBO:1000161)" dataDxfId="21"/>
+    <tableColumn id="23" xr3:uid="{754A37E6-818B-467C-98BA-A6D3A5FDDFEC}" name="Term Accession Number (DPBO:1000161)" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{FE5BE686-6058-4021-BC9B-680DCAC43023}" name="Parameter [data filtering software]"/>
+    <tableColumn id="4" xr3:uid="{DD9B64A6-FD90-4F28-9F28-4A5783366B5E}" name="Term Source REF (DPBO:0000023)" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{251228F2-639B-486F-B15B-D1185D4DCEA9}" name="Term Accession Number (DPBO:0000023)" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{E89D19A5-1D56-442F-B478-6F0FF0963E6F}" name="Parameter [data filtering software version]" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{1BD4E742-03DC-487E-9FFF-68B361BCC2F4}" name="Term Source REF (DPBO:0000024)" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{BA45DA5E-5791-497D-9DC8-4D9D82D1E4FB}" name="Term Accession Number (DPBO:0000024)" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{39111A32-892C-4836-88D1-0D69E0E9F121}" name="Parameter [data filtering software parameters]" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{A64C79BB-7B2C-44A9-9C1C-78034E14B544}" name="Term Source REF (DPBO:0000025)" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{AC3665D3-9A42-4E6C-964D-708C4EAD7573}" name="Term Accession Number (DPBO:0000025)" dataDxfId="12"/>
+    <tableColumn id="33" xr3:uid="{A52ED8B9-574F-4868-9D27-44E1C005CADC}" name="Parameter [read alignment software]" dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{EF47BB63-A102-4B16-ADB9-C485F8B10AC2}" name="Term Source REF (DPBO:0000002)" dataDxfId="10"/>
+    <tableColumn id="35" xr3:uid="{EFFC63BD-58F5-4C01-B67D-95337381EBF5}" name="Term Accession Number (DPBO:0000002)" dataDxfId="9"/>
+    <tableColumn id="36" xr3:uid="{19D00589-C80C-402C-906E-0BE0A63E6F65}" name="Parameter [read alignment software version]" dataDxfId="8"/>
+    <tableColumn id="37" xr3:uid="{AA3B19FF-1D50-48A3-91D4-6B5A7ED75DD5}" name="Term Source REF (DPBO:0000003)" dataDxfId="7"/>
+    <tableColumn id="38" xr3:uid="{188ED304-C9D7-457E-83F9-E21C509FDCFB}" name="Term Accession Number (DPBO:0000003)" dataDxfId="6"/>
+    <tableColumn id="39" xr3:uid="{47EE978E-70E2-44FB-BE42-F14D0AF1CD72}" name="Parameter [read alignment software parameters]" dataDxfId="5"/>
+    <tableColumn id="40" xr3:uid="{FD141266-7B27-471D-B61D-0E040408E68F}" name="Term Source REF (DPBO:0000004)" dataDxfId="4"/>
+    <tableColumn id="41" xr3:uid="{A6D9E9CE-A33F-4F20-BE2C-9B8D7452632A}" name="Term Accession Number (DPBO:0000004)" dataDxfId="3"/>
+    <tableColumn id="42" xr3:uid="{A9FE1275-5167-44B5-8CFB-97906C3145F7}" name="Parameter [processed data file format]" dataDxfId="2"/>
+    <tableColumn id="43" xr3:uid="{12047442-F634-4369-98D7-D9A79A098FBF}" name="Term Source REF (DPBO:0000027)" dataDxfId="1"/>
+    <tableColumn id="44" xr3:uid="{77F68FAE-F2A1-4E8C-A41C-86FCDC9D8AA5}" name="Term Accession Number (DPBO:0000027)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{BAA9200E-163F-4E98-A1E5-599FD8778514}" name="Derived Data File"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1100,7 +1142,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="486" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="464" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
@@ -1133,38 +1175,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.88671875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -1172,216 +1214,370 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="T1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="U1" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="V1" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="W1" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="X1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="Y1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="Z1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="Z3" s="12"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="Z5" s="12"/>
     </row>
@@ -1397,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34C41AE-DF76-4303-A53C-3D579ECAFFB9}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1409,125 +1605,125 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -1536,87 +1732,87 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B27" s="9"/>
     </row>
@@ -1655,40 +1851,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1696,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -1719,34 +1915,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1754,269 +1950,269 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="I6" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="I7" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="I8" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="I9" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
